--- a/singleFactor/factors/indicators.xlsx
+++ b/singleFactor/factors/indicators.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zht\database\quantDb\internship\FT\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\app\python36\zht\internship\FT\singleFactor\factors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6112E62E-CC9E-42EC-B33E-615F50CFC7D3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{40CA7E0B-52EE-458F-B369-240E7FDFFF2D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8856" activeTab="1" xr2:uid="{46789395-A32F-44E5-8258-B075B677A22F}"/>
   </bookViews>
@@ -1011,7 +1011,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/singleFactor/factors/indicators.xlsx
+++ b/singleFactor/factors/indicators.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\app\python36\zht\internship\FT\singleFactor\factors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BB3451A7-0F3F-45A4-9452-0D8AA49CE812}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{90031AA5-7523-4C20-9E6E-8A87F4FACB50}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8856" activeTab="2" xr2:uid="{46789395-A32F-44E5-8258-B075B677A22F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8856" activeTab="1" xr2:uid="{46789395-A32F-44E5-8258-B075B677A22F}"/>
   </bookViews>
   <sheets>
     <sheet name="formula" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="133">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -528,14 +528,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>q=12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>q=4,smooth=True</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kwarg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -545,6 +537,18 @@
   </si>
   <si>
     <t>netAsset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>q=12,delete_negative_y=True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smooth=True,handle_inf=True</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1074,9 +1078,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A566BA4-0811-497F-AEA2-AFD9AF2AF7C8}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1087,7 +1091,7 @@
     <col min="4" max="4" width="41" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="28" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="63.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="3"/>
   </cols>
@@ -1110,7 +1114,7 @@
         <v>106</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>21</v>
@@ -1824,7 +1828,7 @@
         <v>108</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>29</v>
@@ -2032,7 +2036,7 @@
         <v>109</v>
       </c>
       <c r="G41" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="H41" t="s">
         <v>103</v>
@@ -2055,7 +2059,7 @@
         <v>13</v>
       </c>
       <c r="F42" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="G42"/>
       <c r="H42"/>
@@ -2096,8 +2100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A526911-FF16-4660-B858-6379803BDFC3}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2115,7 +2119,7 @@
         <v>106</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2129,7 +2133,7 @@
         <v>112</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2237,7 +2241,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/singleFactor/factors/indicators.xlsx
+++ b/singleFactor/factors/indicators.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\app\python36\zht\internship\FT\singleFactor\factors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{90031AA5-7523-4C20-9E6E-8A87F4FACB50}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0EB355AB-FAD6-42CE-808E-0D5C4907FAF3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8856" activeTab="1" xr2:uid="{46789395-A32F-44E5-8258-B075B677A22F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8856" activeTab="2" xr2:uid="{46789395-A32F-44E5-8258-B075B677A22F}"/>
   </bookViews>
   <sheets>
     <sheet name="formula" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="135">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -489,66 +489,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>q=8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>formula</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oper_rev - oper_cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tot_assets-tot_liab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net_profit_excl_min_int_inc+inc_tax+fin_exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kwarg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>q=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>netAsset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>q=12,delete_negative_y=True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smooth=True,handle_inf=True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>x_history_std</t>
-  </si>
-  <si>
-    <t>q=8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>formula</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oper_rev - oper_cost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tot_assets-tot_liab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net_profit_excl_min_int_inc+inc_tax+fin_exp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kwarg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>q=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>netAsset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>q=12,delete_negative_y=True</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>smooth=True,handle_inf=True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市值问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -556,7 +565,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -593,6 +602,20 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -622,7 +645,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -642,6 +665,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -961,7 +990,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -973,10 +1002,10 @@
   <sheetData>
     <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -987,7 +1016,7 @@
         <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1064,7 +1093,7 @@
         <v>85</v>
       </c>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1078,9 +1107,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A566BA4-0811-497F-AEA2-AFD9AF2AF7C8}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1099,7 +1128,7 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
@@ -1114,7 +1143,7 @@
         <v>106</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>21</v>
@@ -1125,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>76</v>
@@ -1147,7 +1176,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
@@ -1169,7 +1198,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>42</v>
@@ -1191,7 +1220,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -1213,7 +1242,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>62</v>
@@ -1235,7 +1264,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
@@ -1257,7 +1286,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>8</v>
@@ -1279,7 +1308,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>56</v>
@@ -1301,7 +1330,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>46</v>
@@ -1325,7 +1354,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>18</v>
@@ -1349,7 +1378,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>54</v>
@@ -1371,7 +1400,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>53</v>
@@ -1393,7 +1422,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>75</v>
@@ -1415,7 +1444,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>73</v>
@@ -1439,7 +1468,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>43</v>
@@ -1463,7 +1492,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>72</v>
@@ -1487,7 +1516,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>50</v>
@@ -1511,7 +1540,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>39</v>
@@ -1535,7 +1564,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>68</v>
@@ -1559,7 +1588,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>63</v>
@@ -1583,7 +1612,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>60</v>
@@ -1605,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>59</v>
@@ -1627,7 +1656,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>33</v>
@@ -1653,7 +1682,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>30</v>
@@ -1677,7 +1706,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>57</v>
@@ -1699,7 +1728,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>11</v>
@@ -1721,7 +1750,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>14</v>
@@ -1743,7 +1772,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>65</v>
@@ -1767,7 +1796,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>16</v>
@@ -1789,7 +1818,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>35</v>
@@ -1813,7 +1842,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>28</v>
@@ -1828,7 +1857,7 @@
         <v>108</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>29</v>
@@ -1839,7 +1868,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>26</v>
@@ -1865,7 +1894,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>23</v>
@@ -1884,122 +1913,122 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+    <row r="35" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>126</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B35" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="G35"/>
-      <c r="H35"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>126</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B36" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="G36"/>
-      <c r="H36"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
-        <v>126</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B37" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F37" t="s">
-        <v>108</v>
-      </c>
-      <c r="G37"/>
-      <c r="H37"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+      <c r="F37" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+    </row>
+    <row r="38" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
-        <v>126</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B38" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="G38"/>
-      <c r="H38"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
-        <v>126</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B39" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="G39"/>
-      <c r="H39"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C40" t="s">
         <v>100</v>
@@ -2021,7 +2050,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C41" t="s">
         <v>102</v>
@@ -2036,7 +2065,7 @@
         <v>109</v>
       </c>
       <c r="G41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H41" t="s">
         <v>103</v>
@@ -2047,7 +2076,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C42" t="s">
         <v>104</v>
@@ -2059,7 +2088,7 @@
         <v>13</v>
       </c>
       <c r="F42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G42"/>
       <c r="H42"/>
@@ -2069,13 +2098,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C43" t="s">
         <v>105</v>
       </c>
       <c r="D43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E43" t="s">
         <v>13</v>
@@ -2098,10 +2127,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A526911-FF16-4660-B858-6379803BDFC3}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2111,7 +2140,7 @@
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>111</v>
       </c>
@@ -2119,10 +2148,13 @@
         <v>106</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2133,10 +2165,10 @@
         <v>112</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2150,7 +2182,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2164,7 +2196,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2178,7 +2210,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2192,7 +2224,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2206,21 +2238,24 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" t="s">
         <v>117</v>
       </c>
-      <c r="D8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2228,7 +2263,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2236,12 +2271,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/singleFactor/factors/indicators.xlsx
+++ b/singleFactor/factors/indicators.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\app\python36\zht\internship\FT\singleFactor\factors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0EB355AB-FAD6-42CE-808E-0D5C4907FAF3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{34F2936F-E949-47F9-9CC6-4F1B3CBEAF99}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8856" activeTab="2" xr2:uid="{46789395-A32F-44E5-8258-B075B677A22F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8856" activeTab="1" xr2:uid="{46789395-A32F-44E5-8258-B075B677A22F}"/>
   </bookViews>
   <sheets>
     <sheet name="formula" sheetId="2" r:id="rId1"/>
@@ -170,14 +170,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tot_non_cur_liab + freefloat_cap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长期负债/(长期负债+市值)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>netNonOItoTP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -418,10 +410,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tot_assets+tot_non_cur_liab-monetary_cap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ebitdaToCap</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -558,6 +546,18 @@
   </si>
   <si>
     <t>市值问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cap+tot_non_cur_liab-monetary_cap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tot_non_cur_liab + cap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长期负债/(长期负债+市值)  用流通市值还是总市值？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -565,7 +565,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -616,6 +616,26 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -645,7 +665,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -671,6 +691,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -990,7 +1019,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1002,10 +1031,10 @@
   <sheetData>
     <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1013,10 +1042,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1024,10 +1053,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1035,10 +1064,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1046,10 +1075,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1057,10 +1086,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1068,10 +1097,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1079,10 +1108,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1090,10 +1119,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1107,9 +1136,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A566BA4-0811-497F-AEA2-AFD9AF2AF7C8}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1118,7 +1147,7 @@
     <col min="2" max="2" width="6" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.77734375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37" style="3" customWidth="1"/>
     <col min="6" max="6" width="30.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="63.21875" style="3" bestFit="1" customWidth="1"/>
@@ -1128,22 +1157,22 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>21</v>
@@ -1154,10 +1183,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>17</v>
@@ -1166,7 +1195,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -1176,7 +1205,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
@@ -1188,7 +1217,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="2"/>
@@ -1198,10 +1227,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
@@ -1210,7 +1239,7 @@
         <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -1220,7 +1249,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -1232,7 +1261,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="2"/>
@@ -1242,10 +1271,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
@@ -1254,7 +1283,7 @@
         <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -1264,7 +1293,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
@@ -1276,7 +1305,7 @@
         <v>7</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -1286,7 +1315,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>8</v>
@@ -1298,7 +1327,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -1308,19 +1337,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1330,23 +1359,23 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1354,7 +1383,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>18</v>
@@ -1366,7 +1395,7 @@
         <v>20</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
@@ -1378,19 +1407,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1400,19 +1429,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1422,10 +1451,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>19</v>
@@ -1434,7 +1463,7 @@
         <v>24</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1444,23 +1473,23 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1468,23 +1497,23 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1492,23 +1521,23 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1516,23 +1545,23 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1540,23 +1569,23 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1564,23 +1593,23 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1588,23 +1617,23 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1612,19 +1641,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1634,19 +1663,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -1656,7 +1685,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>33</v>
@@ -1665,13 +1694,13 @@
         <v>31</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>34</v>
@@ -1682,19 +1711,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
@@ -1706,19 +1735,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -1728,7 +1757,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>11</v>
@@ -1740,7 +1769,7 @@
         <v>13</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -1750,7 +1779,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>14</v>
@@ -1762,7 +1791,7 @@
         <v>15</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -1772,23 +1801,23 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1796,7 +1825,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>16</v>
@@ -1808,33 +1837,33 @@
         <v>13</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+    <row r="31" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="B31" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2" t="s">
-        <v>38</v>
+      <c r="E31" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1842,22 +1871,22 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>29</v>
@@ -1868,22 +1897,22 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>27</v>
@@ -1894,7 +1923,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>23</v>
@@ -1906,141 +1935,141 @@
         <v>13</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
+    <row r="35" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
         <v>34</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C35" s="8" t="s">
+      <c r="B35" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+    </row>
+    <row r="36" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
+        <v>35</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+    </row>
+    <row r="37" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
+        <v>36</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-    </row>
-    <row r="36" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
-        <v>35</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C36" s="8" t="s">
+      <c r="D37" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+    </row>
+    <row r="38" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="10">
+        <v>37</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D36" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-    </row>
-    <row r="37" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
-        <v>36</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C37" s="8" t="s">
+      <c r="D38" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+    </row>
+    <row r="39" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="10">
+        <v>38</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D39" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E37" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-    </row>
-    <row r="38" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
-        <v>37</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-    </row>
-    <row r="39" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
-        <v>38</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
+      <c r="E39" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C40" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E40" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F40" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G40"/>
       <c r="H40"/>
@@ -2050,10 +2079,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C41" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D41" t="s">
         <v>13</v>
@@ -2062,13 +2091,13 @@
         <v>19</v>
       </c>
       <c r="F41" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G41" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H41" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -2076,10 +2105,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C42" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D42" t="s">
         <v>20</v>
@@ -2088,7 +2117,7 @@
         <v>13</v>
       </c>
       <c r="F42" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G42"/>
       <c r="H42"/>
@@ -2098,19 +2127,19 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C43" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D43" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E43" t="s">
         <v>13</v>
       </c>
       <c r="F43" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G43"/>
       <c r="H43"/>
@@ -2129,8 +2158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A526911-FF16-4660-B858-6379803BDFC3}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2138,20 +2167,21 @@
     <col min="2" max="2" width="29.5546875" customWidth="1"/>
     <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2162,10 +2192,10 @@
         <v>31</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2173,13 +2203,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2187,13 +2217,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2204,10 +2234,10 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2215,13 +2245,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2232,10 +2262,10 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2246,13 +2276,13 @@
         <v>13</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2260,7 +2290,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2276,7 +2306,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/singleFactor/factors/indicators.xlsx
+++ b/singleFactor/factors/indicators.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\app\python36\zht\internship\FT\singleFactor\factors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{34F2936F-E949-47F9-9CC6-4F1B3CBEAF99}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0CB21318-E2D4-42D3-9F62-43672BDE8BA8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8856" activeTab="1" xr2:uid="{46789395-A32F-44E5-8258-B075B677A22F}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="174">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -558,6 +558,269 @@
   </si>
   <si>
     <t>长期负债/(长期负债+市值)  用流通市值还是总市值？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>无形资产比率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF75715E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF75715E"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无形资产</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF75715E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF75715E"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总资产</t>
+    </r>
+  </si>
+  <si>
+    <t>现金股利保障倍数＝经营活动产生的现金流量净额/累计合计派现金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经营活动产生的现金流量净额/净利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总资产现金回收率＝经营活动产生的现金流量净额 * 2/(期初总资产+期末总资产)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smooth=True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金流动负债比=经营活动产生的现金流量净额/流动负债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>downturnRisk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net_cash_flows_oper_act</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x_history_downsid_std</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>q=8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>std(min(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本季度现金流</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上一季度现金流</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,0))</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经营活动产生的现金流量净额  /  总市值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每股经营活动净现金流增长率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ratio_yoy_pct_chg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经营活动产生现金流量净额/负债合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣除非经常损益后的净利润/归属于母公司的净利润   (数据严重缺失）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净利润/营业总收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净利润/利润总额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归属于母公司的净利润/归属于母公司的股东权益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业利润/总资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业利润/净资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售费用/营业总收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流动资产/总资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流动资产/流动负债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总负债/总资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股东权益合计  /  总市值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净利润(不含少数股东损益)  /  总市值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业收入  /  总市值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业收入/(总市值+非流动负债合计-货币资金)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>息税折旧摊销前利润  /  总市值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cash_div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>股息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年复合增长率</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dividend3YR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>netOperateCashFlowPerShare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司从年初到该报告期的派现合计 / 总市值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ebit/总资产</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -565,7 +828,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -604,28 +867,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -635,6 +876,41 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF75715E"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF75715E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -665,7 +941,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -687,19 +963,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1134,23 +1413,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A566BA4-0811-497F-AEA2-AFD9AF2AF7C8}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="63.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="81.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
@@ -1198,7 +1477,9 @@
         <v>105</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="H2" s="9" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -1220,7 +1501,9 @@
         <v>105</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
+      <c r="H3" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -1242,7 +1525,9 @@
         <v>105</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -1264,7 +1549,9 @@
         <v>105</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="2"/>
+      <c r="H5" s="1" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1285,8 +1572,12 @@
       <c r="F6" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -1330,7 +1621,9 @@
         <v>105</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -1352,7 +1645,9 @@
         <v>105</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="H9" s="11" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -1422,7 +1717,9 @@
         <v>105</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -1444,7 +1741,9 @@
         <v>105</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -1466,7 +1765,9 @@
         <v>105</v>
       </c>
       <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -1656,7 +1957,9 @@
         <v>105</v>
       </c>
       <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="H22" s="2" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
@@ -1678,7 +1981,9 @@
         <v>105</v>
       </c>
       <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="H23" s="2" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
@@ -1750,7 +2055,9 @@
         <v>105</v>
       </c>
       <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="H26" s="2" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
@@ -1772,7 +2079,9 @@
         <v>105</v>
       </c>
       <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="H27" s="2" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
@@ -1794,7 +2103,9 @@
         <v>105</v>
       </c>
       <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="H28" s="2" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
@@ -1840,7 +2151,9 @@
         <v>105</v>
       </c>
       <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="H30" s="2" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="31" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
@@ -1849,20 +2162,20 @@
       <c r="B31" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F31" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9" t="s">
+      <c r="F31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1942,115 +2255,125 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10">
+    <row r="35" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-    </row>
-    <row r="36" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10">
+      <c r="G35" s="8"/>
+      <c r="H35" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="F36" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-    </row>
-    <row r="37" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10">
+      <c r="G36" s="8"/>
+      <c r="H36" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F37" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-    </row>
-    <row r="38" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10">
+      <c r="F37" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="F38" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-    </row>
-    <row r="39" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10">
+      <c r="G38" s="8"/>
+      <c r="H38" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="F39" s="11" t="s">
+      <c r="F39" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
@@ -2072,7 +2395,9 @@
         <v>104</v>
       </c>
       <c r="G40"/>
-      <c r="H40"/>
+      <c r="H40" s="8" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
@@ -2114,13 +2439,15 @@
         <v>20</v>
       </c>
       <c r="E42" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="F42" t="s">
         <v>126</v>
       </c>
       <c r="G42"/>
-      <c r="H42"/>
+      <c r="H42" s="8" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
@@ -2142,7 +2469,69 @@
         <v>104</v>
       </c>
       <c r="G43"/>
-      <c r="H43"/>
+      <c r="H43" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>169</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A1:H34">
@@ -2159,7 +2548,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/singleFactor/factors/indicators.xlsx
+++ b/singleFactor/factors/indicators.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\app\python36\zht\internship\FT\singleFactor\factors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0CB21318-E2D4-42D3-9F62-43672BDE8BA8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{33BC7DF0-407D-47A3-98CF-31BF5C0F3D19}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8856" activeTab="1" xr2:uid="{46789395-A32F-44E5-8258-B075B677A22F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18432" windowHeight="7080" activeTab="1" xr2:uid="{46789395-A32F-44E5-8258-B075B677A22F}"/>
   </bookViews>
   <sheets>
     <sheet name="formula" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="204">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -554,10 +554,6 @@
   </si>
   <si>
     <t>tot_non_cur_liab + cap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长期负债/(长期负债+市值)  用流通市值还是总市值？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -636,10 +632,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>x_history_downsid_std</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>q=8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -823,12 +815,150 @@
     <t>ebit/总资产</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>tot_assets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ratio_history_downside_std</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cap_stk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">长期负债/(长期负债+市值)  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用流通市值还是总市值？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPCutToNetProfitToCap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣除非经常损益后的净利润 /  总市值</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新单季度市盈率倒数</t>
+  </si>
+  <si>
+    <t>net_profit_excl_min_int_inc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x_square</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市值平方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>source</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20170226-兴业证券-兴业证券定量研究：价值依旧更胜一筹，盈利能力关注度持续提升</t>
+  </si>
+  <si>
+    <t>资本支出(购建固定资产、无形资产和其他长期资产支付的现金)/营业收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cash_pay_acq_const_fiolta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oper_rev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>capitalizedToSales</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ebitdaToTotLiab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ebitda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>息税折旧摊销前利润  /  总负债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ebit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ebitToTotOperRev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>息税前利润/营业总收入</t>
+  </si>
+  <si>
+    <t>ebitda-cash_pay_acq_const_fialta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（息税折旧摊销前利润 - 资本支出） * 2  /  （期初总资产+ 期末总资产）</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>eps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归属母公司股东的净利润(TTM)／最新总股本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>capSquare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ttm_x=True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -864,6 +994,14 @@
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -912,6 +1050,21 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -941,7 +1094,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -972,7 +1125,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -980,6 +1133,16 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1298,7 +1461,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1413,11 +1576,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A566BA4-0811-497F-AEA2-AFD9AF2AF7C8}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1426,14 +1589,14 @@
     <col min="2" max="2" width="6.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.44140625" style="3" customWidth="1"/>
     <col min="6" max="6" width="32.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.77734375" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="81.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
         <v>120</v>
@@ -1456,104 +1619,108 @@
       <c r="H1" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="I1" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G2" s="2"/>
+      <c r="B2" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>203</v>
+      </c>
       <c r="H2" s="9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
       <c r="B4" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+        <v>146</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1561,71 +1728,75 @@
         <v>121</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>105</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1633,71 +1804,71 @@
         <v>121</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>105</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="H9" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>105</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>105</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1705,34 +1876,34 @@
         <v>121</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>105</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>46</v>
@@ -1742,34 +1913,36 @@
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+        <v>157</v>
+      </c>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>105</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1777,58 +1950,61 @@
         <v>121</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>105</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+        <v>62</v>
+      </c>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G16" s="2"/>
+      <c r="G16" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="H16" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>13</v>
@@ -1838,10 +2014,10 @@
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1849,24 +2025,25 @@
         <v>121</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>105</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+        <v>156</v>
+      </c>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1889,31 +2066,31 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>105</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1921,71 +2098,72 @@
         <v>121</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>105</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>105</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>105</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1993,60 +2171,58 @@
         <v>121</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>84</v>
-      </c>
+      <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>105</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>46</v>
@@ -2056,10 +2232,11 @@
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2067,71 +2244,69 @@
         <v>121</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>105</v>
       </c>
       <c r="G27" s="2"/>
-      <c r="H27" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="H27" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>105</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>105</v>
       </c>
       <c r="G29" s="2"/>
-      <c r="H29" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -2139,10 +2314,10 @@
         <v>121</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>13</v>
@@ -2150,62 +2325,64 @@
       <c r="F30" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G30" s="2"/>
+      <c r="G30" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="H30" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
         <v>30</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="B31" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>86</v>
+      <c r="C32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G32" s="1"/>
+      <c r="H32" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -2213,329 +2390,538 @@
         <v>121</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>84</v>
-      </c>
+      <c r="G33" s="2"/>
       <c r="H33" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="2" t="s">
+      <c r="C34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
-        <v>34</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
+      <c r="F35" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
+      <c r="B36" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
         <v>36</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
+      <c r="B37" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
         <v>37</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
+      <c r="B38" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" t="s">
+        <v>191</v>
+      </c>
+      <c r="D38" t="s">
+        <v>192</v>
+      </c>
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s">
+        <v>179</v>
+      </c>
+      <c r="G38"/>
+      <c r="H38" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+      <c r="B39" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
-        <v>122</v>
-      </c>
-      <c r="C40" t="s">
-        <v>97</v>
-      </c>
-      <c r="D40" t="s">
-        <v>88</v>
-      </c>
-      <c r="E40" t="s">
-        <v>98</v>
-      </c>
-      <c r="F40" t="s">
-        <v>104</v>
-      </c>
-      <c r="G40"/>
-      <c r="H40" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+      <c r="B40" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
-        <v>122</v>
-      </c>
-      <c r="C41" t="s">
-        <v>99</v>
-      </c>
-      <c r="D41" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" t="s">
-        <v>19</v>
-      </c>
-      <c r="F41" t="s">
-        <v>106</v>
-      </c>
-      <c r="G41" t="s">
-        <v>127</v>
-      </c>
-      <c r="H41" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
+        <v>42</v>
+      </c>
+      <c r="B43" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" t="s">
+        <v>106</v>
+      </c>
+      <c r="G44" t="s">
+        <v>127</v>
+      </c>
+      <c r="H44" t="s">
+        <v>100</v>
+      </c>
+      <c r="I44" s="8"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="I45" s="8"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
+        <v>45</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47" t="s">
+        <v>119</v>
+      </c>
+      <c r="E47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" t="s">
+        <v>104</v>
+      </c>
+      <c r="G47"/>
+      <c r="H47" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="I48" s="14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="8">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H49" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
+        <v>49</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51" t="s">
+        <v>97</v>
+      </c>
+      <c r="D51" t="s">
+        <v>88</v>
+      </c>
+      <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
+        <v>104</v>
+      </c>
+      <c r="G51"/>
+      <c r="H51" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="8">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>122</v>
+      </c>
+      <c r="C52" t="s">
         <v>101</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D52" t="s">
         <v>20</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E52" t="s">
         <v>98</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F52" t="s">
         <v>126</v>
       </c>
-      <c r="G42"/>
-      <c r="H42" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>122</v>
-      </c>
-      <c r="C43" t="s">
-        <v>102</v>
-      </c>
-      <c r="D43" t="s">
-        <v>119</v>
-      </c>
-      <c r="E43" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" t="s">
-        <v>104</v>
-      </c>
-      <c r="G43"/>
-      <c r="H43" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="3" t="s">
+      <c r="G52"/>
+      <c r="H52" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="8">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="3" t="s">
+      <c r="E53" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="8">
+        <v>52</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="H51" s="12" t="s">
-        <v>169</v>
+      <c r="F54" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:H34">
-    <sortCondition ref="A1"/>
+  <sortState ref="A2:I64">
+    <sortCondition ref="B1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2548,7 +2934,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2664,7 +3050,7 @@
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="9" t="s">
         <v>129</v>
       </c>
       <c r="D8" t="s">
